--- a/Process Results/Unified_IBNP_SLI.xlsx
+++ b/Process Results/Unified_IBNP_SLI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2656982308591204</v>
+        <v>0.1520532173363014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5248127240468889</v>
+        <v>0.4802272750891174</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2656982308591204</v>
+        <v>0.1520532173363014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5248127240468889</v>
+        <v>0.4802272750891174</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2656982308591204</v>
+        <v>0.1520532173363014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5248127240468889</v>
+        <v>0.4802272750891174</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.435195378131318</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8002463522700789</v>
+        <v>0.7322614478309237</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.435195378131318</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8002463522700789</v>
+        <v>0.7322614478309237</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8345620272984422</v>
+        <v>0.7564796238071323</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8345620272984422</v>
+        <v>0.7564796238071323</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8345620272984422</v>
+        <v>0.7564796238071323</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4964983750629376</v>
+        <v>0.3634201092237075</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8462190865413741</v>
+        <v>0.7610974429043846</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4964983750629376</v>
+        <v>0.3634201092237075</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1</v>
+        <v>0.6472714980673417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1</v>
+        <v>0.7319663617784032</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1</v>
+        <v>0.8994094496439514</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>1</v>
+        <v>0.7319663617784032</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4893,13 +4893,13 @@
         <v/>
       </c>
       <c r="V38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4914,58 +4914,58 @@
         <v/>
       </c>
       <c r="D39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
@@ -4989,52 +4989,52 @@
         <v/>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5112,10 +5112,10 @@
         <v/>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5214,52 +5214,52 @@
         <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5289,40 +5289,40 @@
         <v/>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P44" s="4" t="n">
         <v>1</v>
@@ -5400,10 +5400,10 @@
         <v/>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5586,40 +5586,40 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v/>
+        <v>1.72</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,28 +5661,28 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.988930618699347</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.72</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
@@ -5745,25 +5745,25 @@
         <v/>
       </c>
       <c r="F50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="G50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.988930618699347</v>
+        <v/>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5826,16 +5826,16 @@
         <v/>
       </c>
       <c r="H51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v/>
+        <v>2.598934043970687</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v/>
+        <v>1.615226864906434</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5901,13 +5901,13 @@
         <v/>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J52" s="4" t="n">
-        <v>2.598934043970687</v>
+        <v/>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5967,19 +5967,19 @@
         <v/>
       </c>
       <c r="E53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v/>
+        <v>1.048636363636364</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.048636363636364</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
@@ -6117,13 +6117,13 @@
         <v/>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6189,13 +6189,13 @@
         <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6261,10 +6261,10 @@
         <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -6336,10 +6336,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.7086644129914337</v>
+        <v>0.6478670231425404</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.5248127240468889</v>
+        <v>0.4802272750891174</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.2656982308591204</v>
+        <v>0.1520532173363014</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.4714714744652669</v>
+        <v>0.4321923517767662</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.3760808150252826</v>
+        <v>0.340220912913201</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.2760802129731356</v>
+        <v>0.2461836725031042</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.3616845582615724</v>
+        <v>0.1961706854865059</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,31 +6767,31 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.7086644129914337</v>
+        <v>0.6478670231425404</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5248127240468889</v>
+        <v>0.4802272750891174</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.2656982308591204</v>
+        <v>0.1520532173363014</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.4714714744652669</v>
+        <v>0.4321923517767662</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3760808150252826</v>
+        <v>0.340220912913201</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.2760802129731356</v>
+        <v>0.2461836725031042</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.3616845582615724</v>
+        <v>0.1961706854865059</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
@@ -6831,31 +6831,31 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.7086644129914337</v>
+        <v>0.6478670231425404</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5248127240468889</v>
+        <v>0.4802272750891174</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.2656982308591204</v>
+        <v>0.1520532173363014</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.4714714744652669</v>
+        <v>0.4321923517767662</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.3760808150252826</v>
+        <v>0.340220912913201</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.2760802129731356</v>
+        <v>0.2461836725031042</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.3616845582615724</v>
+        <v>0.1961706854865059</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.2676123073144537</v>
+        <v>0.2124020657464828</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
@@ -6895,31 +6895,31 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8219038139013151</v>
+        <v>0.751391444892806</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8002463522700789</v>
+        <v>0.7322614478309237</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.435195378131318</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5657657693583203</v>
+        <v>0.5186308221321194</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.5014410867003767</v>
+        <v>0.4536278838842679</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.4141203194597035</v>
+        <v>0.3692755087546563</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.5425268373923585</v>
+        <v>0.2942560282297588</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8219038139013151</v>
+        <v>0.751391444892806</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8002463522700789</v>
+        <v>0.7322614478309237</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.435195378131318</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5657657693583203</v>
+        <v>0.5186308221321194</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.5014410867003767</v>
+        <v>0.4536278838842679</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.4141203194597035</v>
+        <v>0.3692755087546563</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.5425268373923585</v>
+        <v>0.2942560282297588</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.438330503359881</v>
+        <v>0.3478999352744116</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.026060980258199</v>
+        <v>1.022081182395726</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.042881388876087</v>
+        <v>1.033073127156901</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.045629776200873</v>
+        <v>1.034684404335875</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.045629776200873</v>
+        <v>1</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.008106060606061</v>
+        <v>1.006948051948052</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.012159090909091</v>
+        <v>1.009727272727273</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.024318181818182</v>
+        <v>1.016212121212121</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.024318181818182</v>
+        <v>1</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.045629776200873</v>
+        <v>1.034684404335875</v>
       </c>
     </row>
     <row r="7">
@@ -7023,31 +7023,31 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8433234329695353</v>
+        <v>0.7679830564380719</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8345620272984422</v>
+        <v>0.7564796238071323</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.5703519009735732</v>
+        <v>0.5222342960261543</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.50753815445912</v>
+        <v>0.4580404460275059</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.4241909726829281</v>
+        <v>0.3752622480632545</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.5557201036653091</v>
+        <v>0.2942560282297588</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
@@ -7087,31 +7087,31 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8433234329695353</v>
+        <v>0.7679830564380719</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8345620272984422</v>
+        <v>0.7564796238071323</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.5703519009735732</v>
+        <v>0.5222342960261543</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.50753815445912</v>
+        <v>0.4580404460275059</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.4241909726829281</v>
+        <v>0.3752622480632545</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.5557201036653091</v>
+        <v>0.2942560282297588</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8433234329695353</v>
+        <v>0.7679830564380719</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8345620272984422</v>
+        <v>0.7564796238071323</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.5703519009735732</v>
+        <v>0.5222342960261543</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.50753815445912</v>
+        <v>0.4580404460275059</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.4241909726829281</v>
+        <v>0.3752622480632545</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.5557201036653091</v>
+        <v>0.2942560282297588</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.4583314261302085</v>
+        <v>0.3599666372978939</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.01309072450344</v>
+        <v>1.005930683433324</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.013967876396997</v>
+        <v>1.006104353576653</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.083273689641971</v>
+        <v>1.00959386667536</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
+        <v>1.164821769783225</v>
+      </c>
+      <c r="S9" s="22" t="n">
         <v>1.197786123739869</v>
       </c>
-      <c r="S9" s="22" t="n">
+      <c r="T9" s="22" t="n">
         <v>1.247232654674837</v>
       </c>
-      <c r="T9" s="22" t="n">
-        <v>1.329643539566449</v>
-      </c>
       <c r="U9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.083273689641971</v>
+        <v>1.00959386667536</v>
       </c>
     </row>
     <row r="10">
@@ -7215,31 +7215,31 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8543631476978344</v>
+        <v>0.7725377208279626</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8462190865413741</v>
+        <v>0.7610974429043846</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.4964983750629376</v>
+        <v>0.3634201092237075</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.4550532458391044</v>
+        <v>0.2490526835680799</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.6831595926348023</v>
+        <v>0.6083098769386815</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.6330181597348156</v>
+        <v>0.5486344903633671</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.5640227863702635</v>
+        <v>0.4680393298511802</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.5557201036653091</v>
+        <v>0.2942560282297588</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.4964983750629376</v>
+        <v>0.3634201092237075</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
@@ -7255,7 +7255,7 @@
         <v>2.014105282566609</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>2.197545032683</v>
+        <v>2.598934043970687</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>1.463786808794137</v>
@@ -7267,7 +7267,7 @@
         <v>1.772978014656895</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.799467021985343</v>
+        <v>2.598934043970687</v>
       </c>
       <c r="V10" s="22" t="n">
         <v>2.014105282566609</v>
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>1</v>
+        <v>0.9042264087696684</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>1</v>
+        <v>0.8994094496439514</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>1</v>
+        <v>0.7319663617784032</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>1</v>
+        <v>0.6472714980673417</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>1</v>
+        <v>0.890435973522027</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>1</v>
+        <v>0.866696289713397</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>1</v>
+        <v>0.8298234418208892</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>1</v>
+        <v>0.7647520094099196</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>1</v>
+        <v>0.7319663617784032</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1</v>
+        <v>1.105917710765211</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1</v>
+        <v>1.111840664333546</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1</v>
+        <v>1.366182999954227</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1</v>
+        <v>1.544946754160896</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1</v>
+        <v>1.123045372981287</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1</v>
+        <v>1.153806716226609</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1</v>
+        <v>1.205075621635478</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1</v>
+        <v>1.307613432453217</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1</v>
+        <v>1.366182999954227</v>
       </c>
     </row>
     <row r="12">
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1</v>
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
         <v>1</v>
@@ -8142,31 +8142,31 @@
         <v/>
       </c>
       <c r="N24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>9731.010833333334</v>
+        <v>9583.997499999999</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8672,16 +8672,16 @@
         <v/>
       </c>
       <c r="AM8" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>9583.997499999999</v>
+        <v>9521.990833333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8745,67 +8745,67 @@
         <v/>
       </c>
       <c r="U9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>9521.990833333333</v>
+        <v>9486.600833333332</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8872,64 +8872,64 @@
         <v/>
       </c>
       <c r="U10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="V10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="W10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="X10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>9486.600833333332</v>
+        <v>9353.5275</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -9047,13 +9047,13 @@
         <v/>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>9353.5275</v>
+        <v>9322.3475</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>9322.3475</v>
+        <v>9289.930833333332</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9253,55 +9253,55 @@
         <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>2981</v>
+        <v>96</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>9289.930833333334</v>
+        <v>9275.047500000001</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9380,52 +9380,52 @@
         <v/>
       </c>
       <c r="U14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="V14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="W14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="X14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>2981</v>
+        <v/>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>2981</v>
+        <v>96</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>2981</v>
+        <v>96</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>2981</v>
+        <v>96</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>2981</v>
+        <v>96</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>9275.047500000001</v>
+        <v>9189.557500000001</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9543,13 +9543,13 @@
         <v/>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>9189.557500000001</v>
+        <v>9146.147500000001</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>9146.147500000001</v>
+        <v>9113.990833333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v/>
+        <v>430</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>9113.990833333333</v>
+        <v>9074.6775</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9885,43 +9885,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v/>
+        <v>430</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v/>
+        <v>430</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v/>
+        <v>430</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v/>
+        <v>430</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v/>
+        <v>430</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>430</v>
+        <v>100.62</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>9074.6775</v>
+        <v>8934.487500000001</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10015,40 +10015,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="V19" s="22" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="W19" s="22" t="n">
-        <v>250</v>
+        <v>50.59</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>250</v>
+        <v>50.59</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>250</v>
+        <v>50.59</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>250</v>
+        <v>50.59</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>250</v>
+        <v>100.62</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>430</v>
+        <v>100.62</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>430</v>
+        <v>100.62</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>430</v>
+        <v>100.62</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>430</v>
+        <v>100.62</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>100.62</v>
+        <v/>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>8934.487500000001</v>
+        <v>8869.655833333334</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10160,28 +10160,28 @@
         <v/>
       </c>
       <c r="W20" s="22" t="n">
-        <v>50.59</v>
+        <v/>
       </c>
       <c r="X20" s="22" t="n">
-        <v>50.59</v>
+        <v/>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>50.59</v>
+        <v/>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>50.59</v>
+        <v/>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>100.62</v>
+        <v/>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>100.62</v>
+        <v/>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>100.62</v>
+        <v/>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>100.62</v>
+        <v/>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v/>
+        <v>1260.2</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>8869.655833333332</v>
+        <v>8869.655833333334</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10302,19 +10302,19 @@
         <v/>
       </c>
       <c r="Y21" s="22" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v/>
+        <v>780.2</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v/>
+        <v>1260.2</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>780.2</v>
+        <v/>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>8869.655833333334</v>
+        <v>8826.259166666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10438,16 +10438,16 @@
         <v/>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>300.2</v>
+        <v/>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>300.2</v>
+        <v/>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>300.2</v>
+        <v/>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>780.2</v>
+        <v/>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v/>
+        <v>4614</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>8826.259166666667</v>
+        <v>8815.279166666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10565,22 +10565,22 @@
         <v/>
       </c>
       <c r="V23" s="22" t="n">
-        <v/>
+        <v>4400</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v/>
+        <v>4400</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v/>
+        <v>4614</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v/>
+        <v>4614</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v/>
+        <v>4614</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v/>
+        <v>4614</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>4614</v>
+        <v>289.92</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>8815.279166666667</v>
+        <v>8785.097499999998</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10703,19 +10703,19 @@
         <v/>
       </c>
       <c r="V24" s="22" t="n">
-        <v>4400</v>
+        <v>289.92</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>4400</v>
+        <v>289.92</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>4614</v>
+        <v>289.92</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>4614</v>
+        <v>289.92</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>4614</v>
+        <v>289.92</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>289.92</v>
+        <v/>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>8785.0975</v>
+        <v>8688.169166666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10841,16 +10841,16 @@
         <v/>
       </c>
       <c r="V25" s="22" t="n">
-        <v>289.92</v>
+        <v/>
       </c>
       <c r="W25" s="22" t="n">
-        <v>289.92</v>
+        <v/>
       </c>
       <c r="X25" s="22" t="n">
-        <v>289.92</v>
+        <v/>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>289.92</v>
+        <v/>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v/>
+        <v>1480</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>8688.169166666667</v>
+        <v>8691.602500000001</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10976,16 +10976,16 @@
         <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v/>
+        <v>740</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v/>
+        <v>1480</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v/>
+        <v>1480</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v/>
+        <v>1480</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>1480</v>
+        <v>420</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>8691.602500000001</v>
+        <v>8477.734166666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11111,16 +11111,16 @@
         <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v/>
+        <v>420</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1480</v>
+        <v>420</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>1480</v>
+        <v>420</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>420</v>
+        <v/>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>8477.734166666667</v>
+        <v>8412.734166666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11249,13 +11249,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>420</v>
+        <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>420</v>
+        <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>420</v>
+        <v/>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>8412.734166666667</v>
+        <v>8266.247499999999</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>55</v>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>8266.247499999999</v>
+        <v>8207.284166666666</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>50</v>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>8207.284166666666</v>
+        <v>8041.885000000001</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>50</v>
